--- a/Test_Results/Test_Results_2/toa_cal.xlsx
+++ b/Test_Results/Test_Results_2/toa_cal.xlsx
@@ -463,22 +463,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0006603181522184486</v>
+        <v>0.6603181522184486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001065759637188209</v>
+        <v>1.065759637188209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0009112048919340322</v>
+        <v>0.9112048919340322</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0006575963718820862</v>
+        <v>0.6575963718820862</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001071598303772011</v>
+        <v>1.071598303772011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009070294784580499</v>
+        <v>0.9070294784580499</v>
       </c>
     </row>
     <row r="3">
@@ -486,22 +486,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0007342965236178678</v>
+        <v>0.3950008508465115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001360544217687075</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001516781676858299</v>
+        <v>-0.4402577480568004</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007482993197278912</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001360293474579658</v>
+        <v>0.1559849851160945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001519274376417233</v>
+        <v>-0.4308390022675737</v>
       </c>
     </row>
     <row r="4">
@@ -509,22 +509,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0002254779213825976</v>
+        <v>-0.4767228451427073</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0007482993197278912</v>
+        <v>-1.26984126984127</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001413437127069169</v>
+        <v>-2.031350183375844</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0002040816326530612</v>
+        <v>-0.4761904761904762</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.000767885414212309</v>
+        <v>-1.26818552774021</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.001405895691609977</v>
+        <v>-2.040816326530612</v>
       </c>
     </row>
     <row r="5">
@@ -532,22 +532,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0007928665650654006</v>
+        <v>0.6237795558828675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001315192743764172</v>
+        <v>0.5895691609977325</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005427231402663474</v>
+        <v>-0.002692718193406324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0007936507936507937</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001305695712179959</v>
+        <v>0.6050531937043389</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0005442176870748299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -555,22 +555,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.000580625831052835</v>
+        <v>0.7086389277650147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008616780045351474</v>
+        <v>1.292517006802721</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000660511221216038</v>
+        <v>1.541215953830037</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005895691609977325</v>
+        <v>0.7029478458049886</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0008631838169293792</v>
+        <v>1.304139074833224</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006575963718820862</v>
+        <v>1.541950113378685</v>
       </c>
     </row>
     <row r="7">
@@ -578,22 +578,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0007306531663884216</v>
+        <v>0.2473850426869561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001224489795918367</v>
+        <v>0.06802721088435373</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000942156936939036</v>
+        <v>-0.3802581138671877</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007256235827664399</v>
+        <v>0.2494331065759637</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001239886211015647</v>
+        <v>0.08084678929578659</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0009297052154195011</v>
+        <v>-0.3854875283446712</v>
       </c>
     </row>
     <row r="8">
@@ -601,22 +601,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0007869459677801944</v>
+        <v>0.659905908185257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001360544217687075</v>
+        <v>0.9297052154195011</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006711348559926249</v>
+        <v>0.5145133491967829</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007936507936507937</v>
+        <v>0.6575963718820862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001369379260908904</v>
+        <v>0.9324018116487143</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0006802721088435374</v>
+        <v>0.5215419501133787</v>
       </c>
     </row>
     <row r="9">
@@ -624,22 +624,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0007712197737503581</v>
+        <v>0.5137392823977042</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001496598639455782</v>
+        <v>0.7256235827664399</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001586890114503978</v>
+        <v>0.4907005132262501</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0007709750566893424</v>
+        <v>0.5215419501133787</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001482298151771015</v>
+        <v>0.7141090169048173</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001587301587301587</v>
+        <v>0.4988662131519275</v>
       </c>
     </row>
     <row r="10">
@@ -647,22 +647,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000747486840431071</v>
+        <v>0.6261701570170065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001405895691609977</v>
+        <v>1.08843537414966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001479242589904325</v>
+        <v>1.165374245474661</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0007482993197278912</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001392041180326169</v>
+        <v>1.07619612623426</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001496598639455782</v>
+        <v>1.179138321995465</v>
       </c>
     </row>
     <row r="11">
@@ -670,22 +670,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0002260286466956094</v>
+        <v>0.7478644345922981</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0009750566893424037</v>
+        <v>1.26984126984127</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001726122954404271</v>
+        <v>0.8777519492556363</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0002267573696145125</v>
+        <v>0.7482993197278912</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0009745466989979662</v>
+        <v>1.273801470238159</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.001723356009070295</v>
+        <v>0.8843537414965986</v>
       </c>
     </row>
   </sheetData>
